--- a/data/panelapp/au/Regression.xlsx
+++ b/data/panelapp/au/Regression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606398</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606409</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606413</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606416</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606419</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606421</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606424</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606427</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606429</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606432</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606434</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606437</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606439</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606442</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606445</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606447</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606450</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606453</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606455</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606458</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606460</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606463</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606466</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606468</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606471</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606474</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606476</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606479</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606481</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606483</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606486</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606488</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606492</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606494</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606497</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606499</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606502</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606504</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606507</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606509</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606512</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606515</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606518</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606520</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606523</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606525</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606528</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606530</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606533</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606535</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606538</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606540</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606543</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606546</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606548</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606551</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606553</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606556</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606558</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606561</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606563</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606566</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606568</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606571</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606574</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606577</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606580</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606582</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606585</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606587</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606590</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606592</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606595</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606597</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606600</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606602</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606607</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606610</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606612</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606615</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606618</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606620</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606623</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606625</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606628</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606630</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606633</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606635</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606638</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606640</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606643</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606645</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606649</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606652</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606655</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606657</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606660</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606662</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606665</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606667</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606670</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606673</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606675</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606678</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606680</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606683</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606685</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606688</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606692</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606695</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606698</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606700</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606703</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606705</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606708</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606710</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606713</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606716</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606718</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606721</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606723</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606726</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606728</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606731</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606734</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606736</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606739</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606741</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606746</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606749</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606752</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606754</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606757</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606759</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606762</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606764</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606767</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606770</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606772</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606775</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606777</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606780</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606783</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606785</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606788</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606791</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606793</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606796</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606799</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606802</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606804</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606807</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606809</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606812</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606814</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606817</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606819</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606822</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606825</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606827</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606830</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606832</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606835</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606837</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606840</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606842</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606845</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606848</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606850</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606852</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606855</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606858</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606861</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606864</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606867</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606870</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606872</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606875</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606877</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606880</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606883</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606885</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606888</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606890</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606893</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606895</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606898</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606900</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606903</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606905</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606908</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606910</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606913</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606915</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606918</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606920</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606923</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606926</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606928</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606931</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606934</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606936</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606939</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606942</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606944</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606947</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606949</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606952</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606955</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606957</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606960</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606962</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606965</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606967</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606970</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606972</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606975</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606978</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606981</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606983</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606986</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606988</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606991</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606994</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606996</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.606999</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607002</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607004</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607007</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607009</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607012</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607015</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607018</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607021</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607024</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607027</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607029</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607032</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607034</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607037</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607040</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607043</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607045</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607048</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607050</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607053</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607056</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607058</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607061</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607063</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607066</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607069</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607072</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607074</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607077</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607079</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607082</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607085</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607088</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607090</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607093</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607095</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607098</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607101</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607103</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607106</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607108</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607111</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607114</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607117</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607119</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607122</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607124</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607127</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607130</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607132</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607135</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607137</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607140</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607142</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607145</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607147</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607150</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607153</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607155</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607158</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607161</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607163</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607166</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607168</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607171</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607173</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607176</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607179</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607181</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607184</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607186</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607189</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607191</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607194</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607196</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607199</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607202</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607205</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607207</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607210</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607213</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607215</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607219</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607222</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607225</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607228</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607230</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607233</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607236</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607238</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607241</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607243</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607246</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607248</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607251</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607254</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607256</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607259</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607262</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607265</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607267</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607270</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607272</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607275</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607277</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607280</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607282</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607285</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607287</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607290</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607293</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607295</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607298</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607300</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607303</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607305</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607307</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9054,6 +10774,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607310</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9079,6 +10804,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607312</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9104,6 +10834,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607315</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9129,6 +10864,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607317</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9154,6 +10894,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607320</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9179,6 +10924,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607322</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9204,6 +10954,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607325</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9211,12 +10966,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TACO1</t>
+          <t>SHQ1</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>translational activator of cytochrome c oxidase I</t>
+          <t>SHQ1, H/ACA ribonucleoprotein assembly factor</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9227,6 +10982,11 @@
       <c r="E352" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607327</t>
         </is>
       </c>
     </row>
@@ -9236,22 +10996,27 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ABCB7</t>
+          <t>TACO1</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>ATP binding cassette subfamily B member 7</t>
+          <t>translational activator of cytochrome c oxidase I</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607330</t>
         </is>
       </c>
     </row>
@@ -9261,12 +11026,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ALG6</t>
+          <t>ABCB7</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>ALG6, alpha-1,3-glucosyltransferase</t>
+          <t>ATP binding cassette subfamily B member 7</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9277,6 +11042,11 @@
       <c r="E354" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607334</t>
         </is>
       </c>
     </row>
@@ -9286,12 +11056,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ANO3</t>
+          <t>ALG6</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>anoctamin 3</t>
+          <t>ALG6, alpha-1,3-glucosyltransferase</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -9302,6 +11072,11 @@
       <c r="E355" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607337</t>
         </is>
       </c>
     </row>
@@ -9311,12 +11086,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ARL13B</t>
+          <t>ANO3</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>ADP ribosylation factor like GTPase 13B</t>
+          <t>anoctamin 3</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -9327,6 +11102,11 @@
       <c r="E356" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607339</t>
         </is>
       </c>
     </row>
@@ -9336,12 +11116,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ATCAY</t>
+          <t>ARL13B</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>ATCAY, caytaxin</t>
+          <t>ADP ribosylation factor like GTPase 13B</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -9352,6 +11132,11 @@
       <c r="E357" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607342</t>
         </is>
       </c>
     </row>
@@ -9361,12 +11146,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>C5orf42</t>
+          <t>ATCAY</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>chromosome 5 open reading frame 42</t>
+          <t>ATCAY, caytaxin</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -9377,6 +11162,11 @@
       <c r="E358" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607344</t>
         </is>
       </c>
     </row>
@@ -9386,12 +11176,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>CAMTA1</t>
+          <t>C5orf42</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>calmodulin binding transcription activator 1</t>
+          <t>chromosome 5 open reading frame 42</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -9402,6 +11192,11 @@
       <c r="E359" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607347</t>
         </is>
       </c>
     </row>
@@ -9411,12 +11206,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>CHMP1A</t>
+          <t>CAMTA1</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>charged multivesicular body protein 1A</t>
+          <t>calmodulin binding transcription activator 1</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -9427,6 +11222,11 @@
       <c r="E360" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607350</t>
         </is>
       </c>
     </row>
@@ -9436,12 +11236,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>CIZ1</t>
+          <t>CHMP1A</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>CDKN1A interacting zinc finger protein 1</t>
+          <t>charged multivesicular body protein 1A</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -9452,6 +11252,11 @@
       <c r="E361" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607352</t>
         </is>
       </c>
     </row>
@@ -9461,12 +11266,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>COA5</t>
+          <t>CIZ1</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase assembly factor 5</t>
+          <t>CDKN1A interacting zinc finger protein 1</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -9477,6 +11282,11 @@
       <c r="E362" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607355</t>
         </is>
       </c>
     </row>
@@ -9486,12 +11296,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>CSPP1</t>
+          <t>COA5</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>centrosome and spindle pole associated protein 1</t>
+          <t>cytochrome c oxidase assembly factor 5</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -9502,6 +11312,11 @@
       <c r="E363" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607357</t>
         </is>
       </c>
     </row>
@@ -9511,12 +11326,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>CST3</t>
+          <t>CSPP1</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>cystatin C</t>
+          <t>centrosome and spindle pole associated protein 1</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -9527,6 +11342,11 @@
       <c r="E364" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607360</t>
         </is>
       </c>
     </row>
@@ -9536,12 +11356,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>EEF2</t>
+          <t>CST3</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>eukaryotic translation elongation factor 2</t>
+          <t>cystatin C</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -9552,6 +11372,11 @@
       <c r="E365" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607362</t>
         </is>
       </c>
     </row>
@@ -9561,12 +11386,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>FUS</t>
+          <t>EEF2</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>FUS RNA binding protein</t>
+          <t>eukaryotic translation elongation factor 2</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -9577,6 +11402,11 @@
       <c r="E366" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607365</t>
         </is>
       </c>
     </row>
@@ -9586,12 +11416,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>GNAL</t>
+          <t>FUS</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>G protein subunit alpha L</t>
+          <t>FUS RNA binding protein</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -9602,6 +11432,11 @@
       <c r="E367" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607367</t>
         </is>
       </c>
     </row>
@@ -9611,12 +11446,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>INPP5E</t>
+          <t>GNAL</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>inositol polyphosphate-5-phosphatase E</t>
+          <t>G protein subunit alpha L</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -9627,6 +11462,11 @@
       <c r="E368" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607370</t>
         </is>
       </c>
     </row>
@@ -9636,12 +11476,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>LSM11</t>
+          <t>INPP5E</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>LSM11, U7 small nuclear RNA associated</t>
+          <t>inositol polyphosphate-5-phosphatase E</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -9652,6 +11492,11 @@
       <c r="E369" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607373</t>
         </is>
       </c>
     </row>
@@ -9661,12 +11506,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NDUFA4</t>
+          <t>LSM11</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>NDUFA4, mitochondrial complex associated</t>
+          <t>LSM11, U7 small nuclear RNA associated</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -9677,6 +11522,11 @@
       <c r="E370" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607375</t>
         </is>
       </c>
     </row>
@@ -9686,12 +11536,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NDUFB3</t>
+          <t>NDUFA4</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit B3</t>
+          <t>NDUFA4, mitochondrial complex associated</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -9702,6 +11552,11 @@
       <c r="E371" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607378</t>
         </is>
       </c>
     </row>
@@ -9711,12 +11566,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>PDE6D</t>
+          <t>NDUFB3</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>phosphodiesterase 6D</t>
+          <t>NADH:ubiquinone oxidoreductase subunit B3</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -9727,6 +11582,11 @@
       <c r="E372" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607380</t>
         </is>
       </c>
     </row>
@@ -9736,12 +11596,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>PDSS1</t>
+          <t>PDE6D</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>decaprenyl diphosphate synthase subunit 1</t>
+          <t>phosphodiesterase 6D</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -9752,6 +11612,11 @@
       <c r="E373" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607383</t>
         </is>
       </c>
     </row>
@@ -9761,12 +11626,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>PET100</t>
+          <t>PDSS1</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>PET100 homolog</t>
+          <t>decaprenyl diphosphate synthase subunit 1</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -9777,6 +11642,11 @@
       <c r="E374" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607385</t>
         </is>
       </c>
     </row>
@@ -9786,12 +11656,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>PNKD</t>
+          <t>PET100</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>paroxysmal nonkinesigenic dyskinesia</t>
+          <t>PET100 homolog</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -9802,6 +11672,11 @@
       <c r="E375" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607388</t>
         </is>
       </c>
     </row>
@@ -9811,12 +11686,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>PRKRA</t>
+          <t>PNKD</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>protein activator of interferon induced protein kinase EIF2AK2</t>
+          <t>paroxysmal nonkinesigenic dyskinesia</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -9827,6 +11702,11 @@
       <c r="E376" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607391</t>
         </is>
       </c>
     </row>
@@ -9836,12 +11716,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>SCO1</t>
+          <t>PRKRA</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>SCO1, cytochrome c oxidase assembly protein</t>
+          <t>protein activator of interferon induced protein kinase EIF2AK2</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -9852,6 +11732,11 @@
       <c r="E377" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607393</t>
         </is>
       </c>
     </row>
@@ -9861,12 +11746,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>SGCE</t>
+          <t>SCO1</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>sarcoglycan epsilon</t>
+          <t>SCO1, cytochrome c oxidase assembly protein</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -9877,6 +11762,11 @@
       <c r="E378" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607396</t>
         </is>
       </c>
     </row>
@@ -9886,12 +11776,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>SLC1A3</t>
+          <t>SGCE</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>solute carrier family 1 member 3</t>
+          <t>sarcoglycan epsilon</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -9902,6 +11792,11 @@
       <c r="E379" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607399</t>
         </is>
       </c>
     </row>
@@ -9911,12 +11806,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>SLC20A2</t>
+          <t>SLC1A3</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>solute carrier family 20 member 2</t>
+          <t>solute carrier family 1 member 3</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -9927,6 +11822,11 @@
       <c r="E380" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607401</t>
         </is>
       </c>
     </row>
@@ -9936,12 +11836,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>SYT1</t>
+          <t>SLC20A2</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>synaptotagmin 1</t>
+          <t>solute carrier family 20 member 2</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -9952,6 +11852,11 @@
       <c r="E381" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607404</t>
         </is>
       </c>
     </row>
@@ -9961,12 +11866,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>SYT14</t>
+          <t>SYT1</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>synaptotagmin 14</t>
+          <t>synaptotagmin 1</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -9977,6 +11882,11 @@
       <c r="E382" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607406</t>
         </is>
       </c>
     </row>
@@ -9986,12 +11896,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TCTN1</t>
+          <t>SYT14</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>tectonic family member 1</t>
+          <t>synaptotagmin 14</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10002,6 +11912,11 @@
       <c r="E383" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607409</t>
         </is>
       </c>
     </row>
@@ -10011,12 +11926,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TCTN2</t>
+          <t>TCTN1</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>tectonic family member 2</t>
+          <t>tectonic family member 1</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10027,6 +11942,11 @@
       <c r="E384" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607412</t>
         </is>
       </c>
     </row>
@@ -10036,12 +11956,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TGM6</t>
+          <t>TCTN2</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>transglutaminase 6</t>
+          <t>tectonic family member 2</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10052,6 +11972,11 @@
       <c r="E385" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607414</t>
         </is>
       </c>
     </row>
@@ -10061,12 +11986,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>THAP1</t>
+          <t>TGM6</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>THAP domain containing 1</t>
+          <t>transglutaminase 6</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10077,6 +12002,11 @@
       <c r="E386" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607417</t>
         </is>
       </c>
     </row>
@@ -10086,12 +12016,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TMEM138</t>
+          <t>THAP1</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>transmembrane protein 138</t>
+          <t>THAP domain containing 1</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10102,6 +12032,11 @@
       <c r="E387" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607420</t>
         </is>
       </c>
     </row>
@@ -10111,12 +12046,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TMEM216</t>
+          <t>TMEM138</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>transmembrane protein 216</t>
+          <t>transmembrane protein 138</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10127,6 +12062,11 @@
       <c r="E388" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607422</t>
         </is>
       </c>
     </row>
@@ -10136,12 +12076,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TMEM231</t>
+          <t>TMEM216</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>transmembrane protein 231</t>
+          <t>transmembrane protein 216</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10152,6 +12092,11 @@
       <c r="E389" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607425</t>
         </is>
       </c>
     </row>
@@ -10161,12 +12106,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TMEM237</t>
+          <t>TMEM231</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>transmembrane protein 237</t>
+          <t>transmembrane protein 231</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10177,6 +12122,11 @@
       <c r="E390" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607428</t>
         </is>
       </c>
     </row>
@@ -10186,12 +12136,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TMEM67</t>
+          <t>TMEM237</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>transmembrane protein 67</t>
+          <t>transmembrane protein 237</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10202,6 +12152,11 @@
       <c r="E391" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607430</t>
         </is>
       </c>
     </row>
@@ -10211,12 +12166,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TREM2</t>
+          <t>TMEM67</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>triggering receptor expressed on myeloid cells 2</t>
+          <t>transmembrane protein 67</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -10227,6 +12182,11 @@
       <c r="E392" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607433</t>
         </is>
       </c>
     </row>
@@ -10236,12 +12196,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TSEN34</t>
+          <t>TREM2</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 34</t>
+          <t>triggering receptor expressed on myeloid cells 2</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -10252,6 +12212,11 @@
       <c r="E393" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607436</t>
         </is>
       </c>
     </row>
@@ -10261,12 +12226,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TTC21B</t>
+          <t>TSEN34</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>tetratricopeptide repeat domain 21B</t>
+          <t>tRNA splicing endonuclease subunit 34</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -10277,6 +12242,11 @@
       <c r="E394" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607438</t>
         </is>
       </c>
     </row>
@@ -10286,12 +12256,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>UBR4</t>
+          <t>TTC21B</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
+          <t>tetratricopeptide repeat domain 21B</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -10302,6 +12272,11 @@
       <c r="E395" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607441</t>
         </is>
       </c>
     </row>
@@ -10311,12 +12286,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ZNF423</t>
+          <t>UBR4</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>zinc finger protein 423</t>
+          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -10327,6 +12302,11 @@
       <c r="E396" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607443</t>
         </is>
       </c>
     </row>
@@ -10336,12 +12316,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ZNF592</t>
+          <t>ZNF423</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>zinc finger protein 592</t>
+          <t>zinc finger protein 423</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -10352,6 +12332,11 @@
       <c r="E397" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607446</t>
         </is>
       </c>
     </row>
@@ -10361,22 +12346,27 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NOP56</t>
+          <t>ZNF592</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>NOP56 ribonucleoprotein</t>
+          <t>zinc finger protein 592</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607449</t>
         </is>
       </c>
     </row>
@@ -10386,12 +12376,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NOTCH2NL</t>
+          <t>NOP56</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>notch 2 N-terminal like</t>
+          <t>NOP56 ribonucleoprotein</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -10402,6 +12392,11 @@
       <c r="E399" t="inlineStr">
         <is>
           <t>Regression</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607451</t>
         </is>
       </c>
     </row>
@@ -10411,22 +12406,57 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
+          <t>NOTCH2NL</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>notch 2 N-terminal like</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Regression</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607454</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
           <t>TBP</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
+      <c r="C401" t="inlineStr">
         <is>
           <t>TATA-box binding protein</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr">
+      <c r="D401" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>Regression</t>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Regression</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:30.607457</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Regression.xlsx
+++ b/data/panelapp/au/Regression.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606398</t>
+          <t>2021-10-05 14:35:30.563852</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606409</t>
+          <t>2021-10-05 14:35:30.563860</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606413</t>
+          <t>2021-10-05 14:35:30.563863</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606416</t>
+          <t>2021-10-05 14:35:30.563865</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606419</t>
+          <t>2021-10-05 14:35:30.563868</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606421</t>
+          <t>2021-10-05 14:35:30.563871</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606424</t>
+          <t>2021-10-05 14:35:30.563873</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606427</t>
+          <t>2021-10-05 14:35:30.563876</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606429</t>
+          <t>2021-10-05 14:35:30.563878</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606432</t>
+          <t>2021-10-05 14:35:30.563881</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606434</t>
+          <t>2021-10-05 14:35:30.563883</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606437</t>
+          <t>2021-10-05 14:35:30.563886</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606439</t>
+          <t>2021-10-05 14:35:30.563888</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606442</t>
+          <t>2021-10-05 14:35:30.563891</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606445</t>
+          <t>2021-10-05 14:35:30.563893</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606447</t>
+          <t>2021-10-05 14:35:30.563896</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606450</t>
+          <t>2021-10-05 14:35:30.563898</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606453</t>
+          <t>2021-10-05 14:35:30.563901</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606455</t>
+          <t>2021-10-05 14:35:30.563904</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606458</t>
+          <t>2021-10-05 14:35:30.563906</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606460</t>
+          <t>2021-10-05 14:35:30.563909</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606463</t>
+          <t>2021-10-05 14:35:30.563911</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606466</t>
+          <t>2021-10-05 14:35:30.563914</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606468</t>
+          <t>2021-10-05 14:35:30.563916</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606471</t>
+          <t>2021-10-05 14:35:30.563919</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606474</t>
+          <t>2021-10-05 14:35:30.563922</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606476</t>
+          <t>2021-10-05 14:35:30.563924</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606479</t>
+          <t>2021-10-05 14:35:30.563927</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606481</t>
+          <t>2021-10-05 14:35:30.563929</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606483</t>
+          <t>2021-10-05 14:35:30.563931</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606486</t>
+          <t>2021-10-05 14:35:30.563934</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606488</t>
+          <t>2021-10-05 14:35:30.563936</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606492</t>
+          <t>2021-10-05 14:35:30.563939</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606494</t>
+          <t>2021-10-05 14:35:30.563942</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606497</t>
+          <t>2021-10-05 14:35:30.563944</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606499</t>
+          <t>2021-10-05 14:35:30.563947</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606502</t>
+          <t>2021-10-05 14:35:30.563949</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606504</t>
+          <t>2021-10-05 14:35:30.563952</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606507</t>
+          <t>2021-10-05 14:35:30.563954</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606509</t>
+          <t>2021-10-05 14:35:30.563957</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606512</t>
+          <t>2021-10-05 14:35:30.563959</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606515</t>
+          <t>2021-10-05 14:35:30.563962</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606518</t>
+          <t>2021-10-05 14:35:30.563965</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606520</t>
+          <t>2021-10-05 14:35:30.563967</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606523</t>
+          <t>2021-10-05 14:35:30.563970</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606525</t>
+          <t>2021-10-05 14:35:30.563972</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606528</t>
+          <t>2021-10-05 14:35:30.563974</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606530</t>
+          <t>2021-10-05 14:35:30.563977</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606533</t>
+          <t>2021-10-05 14:35:30.563979</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606535</t>
+          <t>2021-10-05 14:35:30.563982</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606538</t>
+          <t>2021-10-05 14:35:30.563984</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606540</t>
+          <t>2021-10-05 14:35:30.563987</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606543</t>
+          <t>2021-10-05 14:35:30.563990</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606546</t>
+          <t>2021-10-05 14:35:30.563992</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606548</t>
+          <t>2021-10-05 14:35:30.563995</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606551</t>
+          <t>2021-10-05 14:35:30.563997</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606553</t>
+          <t>2021-10-05 14:35:30.564000</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606556</t>
+          <t>2021-10-05 14:35:30.564002</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606558</t>
+          <t>2021-10-05 14:35:30.564005</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606561</t>
+          <t>2021-10-05 14:35:30.564007</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606563</t>
+          <t>2021-10-05 14:35:30.564010</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606566</t>
+          <t>2021-10-05 14:35:30.564012</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606568</t>
+          <t>2021-10-05 14:35:30.564014</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606571</t>
+          <t>2021-10-05 14:35:30.564017</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606574</t>
+          <t>2021-10-05 14:35:30.564020</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606577</t>
+          <t>2021-10-05 14:35:30.564023</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606580</t>
+          <t>2021-10-05 14:35:30.564026</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606582</t>
+          <t>2021-10-05 14:35:30.564028</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606585</t>
+          <t>2021-10-05 14:35:30.564031</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606587</t>
+          <t>2021-10-05 14:35:30.564033</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606590</t>
+          <t>2021-10-05 14:35:30.564035</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606592</t>
+          <t>2021-10-05 14:35:30.564038</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606595</t>
+          <t>2021-10-05 14:35:30.564040</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606597</t>
+          <t>2021-10-05 14:35:30.564043</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606600</t>
+          <t>2021-10-05 14:35:30.564045</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606602</t>
+          <t>2021-10-05 14:35:30.564048</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606607</t>
+          <t>2021-10-05 14:35:30.564052</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606610</t>
+          <t>2021-10-05 14:35:30.564055</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606612</t>
+          <t>2021-10-05 14:35:30.564058</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606615</t>
+          <t>2021-10-05 14:35:30.564061</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606618</t>
+          <t>2021-10-05 14:35:30.564063</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606620</t>
+          <t>2021-10-05 14:35:30.564066</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606623</t>
+          <t>2021-10-05 14:35:30.564068</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606625</t>
+          <t>2021-10-05 14:35:30.564071</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606628</t>
+          <t>2021-10-05 14:35:30.564073</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606630</t>
+          <t>2021-10-05 14:35:30.564076</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606633</t>
+          <t>2021-10-05 14:35:30.564078</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606635</t>
+          <t>2021-10-05 14:35:30.564081</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606638</t>
+          <t>2021-10-05 14:35:30.564083</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606640</t>
+          <t>2021-10-05 14:35:30.564086</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606643</t>
+          <t>2021-10-05 14:35:30.564088</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606645</t>
+          <t>2021-10-05 14:35:30.564091</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606649</t>
+          <t>2021-10-05 14:35:30.564094</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606652</t>
+          <t>2021-10-05 14:35:30.564097</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606655</t>
+          <t>2021-10-05 14:35:30.564100</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606657</t>
+          <t>2021-10-05 14:35:30.564102</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606660</t>
+          <t>2021-10-05 14:35:30.564105</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606662</t>
+          <t>2021-10-05 14:35:30.564107</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606665</t>
+          <t>2021-10-05 14:35:30.564110</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606667</t>
+          <t>2021-10-05 14:35:30.564112</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606670</t>
+          <t>2021-10-05 14:35:30.564115</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606673</t>
+          <t>2021-10-05 14:35:30.564117</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606675</t>
+          <t>2021-10-05 14:35:30.564120</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606678</t>
+          <t>2021-10-05 14:35:30.564122</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606680</t>
+          <t>2021-10-05 14:35:30.564125</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606683</t>
+          <t>2021-10-05 14:35:30.564127</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606685</t>
+          <t>2021-10-05 14:35:30.564130</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606688</t>
+          <t>2021-10-05 14:35:30.564132</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606692</t>
+          <t>2021-10-05 14:35:30.564136</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606695</t>
+          <t>2021-10-05 14:35:30.564139</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606698</t>
+          <t>2021-10-05 14:35:30.564142</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606700</t>
+          <t>2021-10-05 14:35:30.564144</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606703</t>
+          <t>2021-10-05 14:35:30.564146</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606705</t>
+          <t>2021-10-05 14:35:30.564149</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606708</t>
+          <t>2021-10-05 14:35:30.564151</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606710</t>
+          <t>2021-10-05 14:35:30.564154</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606713</t>
+          <t>2021-10-05 14:35:30.564156</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606716</t>
+          <t>2021-10-05 14:35:30.564159</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606718</t>
+          <t>2021-10-05 14:35:30.564161</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606721</t>
+          <t>2021-10-05 14:35:30.564164</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606723</t>
+          <t>2021-10-05 14:35:30.564166</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606726</t>
+          <t>2021-10-05 14:35:30.564169</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606728</t>
+          <t>2021-10-05 14:35:30.564171</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606731</t>
+          <t>2021-10-05 14:35:30.564174</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606734</t>
+          <t>2021-10-05 14:35:30.564176</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606736</t>
+          <t>2021-10-05 14:35:30.564179</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606739</t>
+          <t>2021-10-05 14:35:30.564181</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606741</t>
+          <t>2021-10-05 14:35:30.564184</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606746</t>
+          <t>2021-10-05 14:35:30.564187</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606749</t>
+          <t>2021-10-05 14:35:30.564190</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606752</t>
+          <t>2021-10-05 14:35:30.564193</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606754</t>
+          <t>2021-10-05 14:35:30.564195</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606757</t>
+          <t>2021-10-05 14:35:30.564198</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606759</t>
+          <t>2021-10-05 14:35:30.564200</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606762</t>
+          <t>2021-10-05 14:35:30.564203</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606764</t>
+          <t>2021-10-05 14:35:30.564205</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606767</t>
+          <t>2021-10-05 14:35:30.564208</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606770</t>
+          <t>2021-10-05 14:35:30.564210</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606772</t>
+          <t>2021-10-05 14:35:30.564213</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606775</t>
+          <t>2021-10-05 14:35:30.564215</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606777</t>
+          <t>2021-10-05 14:35:30.564218</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606780</t>
+          <t>2021-10-05 14:35:30.564220</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606783</t>
+          <t>2021-10-05 14:35:30.564223</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606785</t>
+          <t>2021-10-05 14:35:30.564225</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606788</t>
+          <t>2021-10-05 14:35:30.564228</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606791</t>
+          <t>2021-10-05 14:35:30.564230</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606793</t>
+          <t>2021-10-05 14:35:30.564233</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606796</t>
+          <t>2021-10-05 14:35:30.564235</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606799</t>
+          <t>2021-10-05 14:35:30.564238</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606802</t>
+          <t>2021-10-05 14:35:30.564241</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606804</t>
+          <t>2021-10-05 14:35:30.564243</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606807</t>
+          <t>2021-10-05 14:35:30.564245</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606809</t>
+          <t>2021-10-05 14:35:30.564248</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606812</t>
+          <t>2021-10-05 14:35:30.564250</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606814</t>
+          <t>2021-10-05 14:35:30.564253</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606817</t>
+          <t>2021-10-05 14:35:30.564255</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606819</t>
+          <t>2021-10-05 14:35:30.564258</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606822</t>
+          <t>2021-10-05 14:35:30.564260</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606825</t>
+          <t>2021-10-05 14:35:30.564263</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606827</t>
+          <t>2021-10-05 14:35:30.564265</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606830</t>
+          <t>2021-10-05 14:35:30.564268</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606832</t>
+          <t>2021-10-05 14:35:30.564270</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606835</t>
+          <t>2021-10-05 14:35:30.564273</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606837</t>
+          <t>2021-10-05 14:35:30.564275</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606840</t>
+          <t>2021-10-05 14:35:30.564278</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606842</t>
+          <t>2021-10-05 14:35:30.564280</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606845</t>
+          <t>2021-10-05 14:35:30.564282</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606848</t>
+          <t>2021-10-05 14:35:30.564285</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606850</t>
+          <t>2021-10-05 14:35:30.564287</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606852</t>
+          <t>2021-10-05 14:35:30.564290</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606855</t>
+          <t>2021-10-05 14:35:30.564292</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606858</t>
+          <t>2021-10-05 14:35:30.564295</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606861</t>
+          <t>2021-10-05 14:35:30.564299</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606864</t>
+          <t>2021-10-05 14:35:30.564302</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606867</t>
+          <t>2021-10-05 14:35:30.564304</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606870</t>
+          <t>2021-10-05 14:35:30.564307</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606872</t>
+          <t>2021-10-05 14:35:30.564309</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606875</t>
+          <t>2021-10-05 14:35:30.564312</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606877</t>
+          <t>2021-10-05 14:35:30.564314</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606880</t>
+          <t>2021-10-05 14:35:30.564317</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606883</t>
+          <t>2021-10-05 14:35:30.564319</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606885</t>
+          <t>2021-10-05 14:35:30.564322</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606888</t>
+          <t>2021-10-05 14:35:30.564324</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606890</t>
+          <t>2021-10-05 14:35:30.564327</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606893</t>
+          <t>2021-10-05 14:35:30.564329</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606895</t>
+          <t>2021-10-05 14:35:30.564332</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606898</t>
+          <t>2021-10-05 14:35:30.564334</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606900</t>
+          <t>2021-10-05 14:35:30.564337</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606903</t>
+          <t>2021-10-05 14:35:30.564339</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606905</t>
+          <t>2021-10-05 14:35:30.564342</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606908</t>
+          <t>2021-10-05 14:35:30.564344</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606910</t>
+          <t>2021-10-05 14:35:30.564347</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606913</t>
+          <t>2021-10-05 14:35:30.564349</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606915</t>
+          <t>2021-10-05 14:35:30.564352</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606918</t>
+          <t>2021-10-05 14:35:30.564354</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606920</t>
+          <t>2021-10-05 14:35:30.564357</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606923</t>
+          <t>2021-10-05 14:35:30.564359</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606926</t>
+          <t>2021-10-05 14:35:30.564362</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606928</t>
+          <t>2021-10-05 14:35:30.564364</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606931</t>
+          <t>2021-10-05 14:35:30.564367</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606934</t>
+          <t>2021-10-05 14:35:30.564370</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606936</t>
+          <t>2021-10-05 14:35:30.564372</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606939</t>
+          <t>2021-10-05 14:35:30.564375</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606942</t>
+          <t>2021-10-05 14:35:30.564377</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606944</t>
+          <t>2021-10-05 14:35:30.564380</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606947</t>
+          <t>2021-10-05 14:35:30.564382</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606949</t>
+          <t>2021-10-05 14:35:30.564385</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606952</t>
+          <t>2021-10-05 14:35:30.564387</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606955</t>
+          <t>2021-10-05 14:35:30.564390</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606957</t>
+          <t>2021-10-05 14:35:30.564392</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606960</t>
+          <t>2021-10-05 14:35:30.564395</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606962</t>
+          <t>2021-10-05 14:35:30.564397</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606965</t>
+          <t>2021-10-05 14:35:30.564400</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606967</t>
+          <t>2021-10-05 14:35:30.564402</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606970</t>
+          <t>2021-10-05 14:35:30.564405</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606972</t>
+          <t>2021-10-05 14:35:30.564407</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606975</t>
+          <t>2021-10-05 14:35:30.564410</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606978</t>
+          <t>2021-10-05 14:35:30.564412</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606981</t>
+          <t>2021-10-05 14:35:30.564415</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606983</t>
+          <t>2021-10-05 14:35:30.564417</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606986</t>
+          <t>2021-10-05 14:35:30.564419</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606988</t>
+          <t>2021-10-05 14:35:30.564422</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606991</t>
+          <t>2021-10-05 14:35:30.564424</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606994</t>
+          <t>2021-10-05 14:35:30.564427</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606996</t>
+          <t>2021-10-05 14:35:30.564429</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.606999</t>
+          <t>2021-10-05 14:35:30.564432</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607002</t>
+          <t>2021-10-05 14:35:30.564434</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607004</t>
+          <t>2021-10-05 14:35:30.564437</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607007</t>
+          <t>2021-10-05 14:35:30.564439</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607009</t>
+          <t>2021-10-05 14:35:30.564442</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607012</t>
+          <t>2021-10-05 14:35:30.564444</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607015</t>
+          <t>2021-10-05 14:35:30.564447</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607018</t>
+          <t>2021-10-05 14:35:30.564450</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607021</t>
+          <t>2021-10-05 14:35:30.564453</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607024</t>
+          <t>2021-10-05 14:35:30.564455</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607027</t>
+          <t>2021-10-05 14:35:30.564458</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607029</t>
+          <t>2021-10-05 14:35:30.564460</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607032</t>
+          <t>2021-10-05 14:35:30.564463</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607034</t>
+          <t>2021-10-05 14:35:30.564465</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607037</t>
+          <t>2021-10-05 14:35:30.564468</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607040</t>
+          <t>2021-10-05 14:35:30.564470</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607043</t>
+          <t>2021-10-05 14:35:30.564473</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607045</t>
+          <t>2021-10-05 14:35:30.564475</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607048</t>
+          <t>2021-10-05 14:35:30.564478</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607050</t>
+          <t>2021-10-05 14:35:30.564480</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607053</t>
+          <t>2021-10-05 14:35:30.564483</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607056</t>
+          <t>2021-10-05 14:35:30.564485</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607058</t>
+          <t>2021-10-05 14:35:30.564488</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607061</t>
+          <t>2021-10-05 14:35:30.564490</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607063</t>
+          <t>2021-10-05 14:35:30.564493</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607066</t>
+          <t>2021-10-05 14:35:30.564495</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607069</t>
+          <t>2021-10-05 14:35:30.564497</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607072</t>
+          <t>2021-10-05 14:35:30.564500</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607074</t>
+          <t>2021-10-05 14:35:30.564502</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607077</t>
+          <t>2021-10-05 14:35:30.564505</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607079</t>
+          <t>2021-10-05 14:35:30.564507</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607082</t>
+          <t>2021-10-05 14:35:30.564510</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607085</t>
+          <t>2021-10-05 14:35:30.564512</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607088</t>
+          <t>2021-10-05 14:35:30.564515</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607090</t>
+          <t>2021-10-05 14:35:30.564517</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607093</t>
+          <t>2021-10-05 14:35:30.564520</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607095</t>
+          <t>2021-10-05 14:35:30.564522</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607098</t>
+          <t>2021-10-05 14:35:30.564525</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607101</t>
+          <t>2021-10-05 14:35:30.564527</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607103</t>
+          <t>2021-10-05 14:35:30.564530</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607106</t>
+          <t>2021-10-05 14:35:30.564532</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607108</t>
+          <t>2021-10-05 14:35:30.564534</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607111</t>
+          <t>2021-10-05 14:35:30.564537</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607114</t>
+          <t>2021-10-05 14:35:30.564540</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607117</t>
+          <t>2021-10-05 14:35:30.564542</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607119</t>
+          <t>2021-10-05 14:35:30.564545</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607122</t>
+          <t>2021-10-05 14:35:30.564547</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607124</t>
+          <t>2021-10-05 14:35:30.564550</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607127</t>
+          <t>2021-10-05 14:35:30.564552</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607130</t>
+          <t>2021-10-05 14:35:30.564555</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607132</t>
+          <t>2021-10-05 14:35:30.564557</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607135</t>
+          <t>2021-10-05 14:35:30.564560</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607137</t>
+          <t>2021-10-05 14:35:30.564562</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607140</t>
+          <t>2021-10-05 14:35:30.564565</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607142</t>
+          <t>2021-10-05 14:35:30.564567</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607145</t>
+          <t>2021-10-05 14:35:30.564570</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607147</t>
+          <t>2021-10-05 14:35:30.564572</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607150</t>
+          <t>2021-10-05 14:35:30.564575</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607153</t>
+          <t>2021-10-05 14:35:30.564577</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607155</t>
+          <t>2021-10-05 14:35:30.564579</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607158</t>
+          <t>2021-10-05 14:35:30.564582</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607161</t>
+          <t>2021-10-05 14:35:30.564584</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607163</t>
+          <t>2021-10-05 14:35:30.564587</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607166</t>
+          <t>2021-10-05 14:35:30.564589</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607168</t>
+          <t>2021-10-05 14:35:30.564592</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607171</t>
+          <t>2021-10-05 14:35:30.564594</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607173</t>
+          <t>2021-10-05 14:35:30.564597</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607176</t>
+          <t>2021-10-05 14:35:30.564599</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607179</t>
+          <t>2021-10-05 14:35:30.564602</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607181</t>
+          <t>2021-10-05 14:35:30.564604</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607184</t>
+          <t>2021-10-05 14:35:30.564607</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607186</t>
+          <t>2021-10-05 14:35:30.564609</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607189</t>
+          <t>2021-10-05 14:35:30.564612</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607191</t>
+          <t>2021-10-05 14:35:30.564614</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607194</t>
+          <t>2021-10-05 14:35:30.564616</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607196</t>
+          <t>2021-10-05 14:35:30.564619</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607199</t>
+          <t>2021-10-05 14:35:30.564621</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607202</t>
+          <t>2021-10-05 14:35:30.564624</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607205</t>
+          <t>2021-10-05 14:35:30.564627</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607207</t>
+          <t>2021-10-05 14:35:30.564629</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607210</t>
+          <t>2021-10-05 14:35:30.564632</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607213</t>
+          <t>2021-10-05 14:35:30.564634</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607215</t>
+          <t>2021-10-05 14:35:30.564637</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607219</t>
+          <t>2021-10-05 14:35:30.564641</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607222</t>
+          <t>2021-10-05 14:35:30.564644</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607225</t>
+          <t>2021-10-05 14:35:30.564646</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607228</t>
+          <t>2021-10-05 14:35:30.564649</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607230</t>
+          <t>2021-10-05 14:35:30.564651</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607233</t>
+          <t>2021-10-05 14:35:30.564654</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607236</t>
+          <t>2021-10-05 14:35:30.564656</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607238</t>
+          <t>2021-10-05 14:35:30.564659</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607241</t>
+          <t>2021-10-05 14:35:30.564661</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607243</t>
+          <t>2021-10-05 14:35:30.564663</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607246</t>
+          <t>2021-10-05 14:35:30.564666</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607248</t>
+          <t>2021-10-05 14:35:30.564668</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607251</t>
+          <t>2021-10-05 14:35:30.564671</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607254</t>
+          <t>2021-10-05 14:35:30.564673</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607256</t>
+          <t>2021-10-05 14:35:30.564676</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607259</t>
+          <t>2021-10-05 14:35:30.564678</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607262</t>
+          <t>2021-10-05 14:35:30.564680</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607265</t>
+          <t>2021-10-05 14:35:30.564683</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607267</t>
+          <t>2021-10-05 14:35:30.564685</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607270</t>
+          <t>2021-10-05 14:35:30.564688</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607272</t>
+          <t>2021-10-05 14:35:30.564690</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607275</t>
+          <t>2021-10-05 14:35:30.564693</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607277</t>
+          <t>2021-10-05 14:35:30.564695</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607280</t>
+          <t>2021-10-05 14:35:30.564698</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607282</t>
+          <t>2021-10-05 14:35:30.564700</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607285</t>
+          <t>2021-10-05 14:35:30.564702</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607287</t>
+          <t>2021-10-05 14:35:30.564705</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607290</t>
+          <t>2021-10-05 14:35:30.564707</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607293</t>
+          <t>2021-10-05 14:35:30.564710</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607295</t>
+          <t>2021-10-05 14:35:30.564712</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607298</t>
+          <t>2021-10-05 14:35:30.564715</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607300</t>
+          <t>2021-10-05 14:35:30.564717</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607303</t>
+          <t>2021-10-05 14:35:30.564720</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607305</t>
+          <t>2021-10-05 14:35:30.564722</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607307</t>
+          <t>2021-10-05 14:35:30.564725</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607310</t>
+          <t>2021-10-05 14:35:30.564727</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607312</t>
+          <t>2021-10-05 14:35:30.564729</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607315</t>
+          <t>2021-10-05 14:35:30.564732</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607317</t>
+          <t>2021-10-05 14:35:30.564734</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607320</t>
+          <t>2021-10-05 14:35:30.564737</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607322</t>
+          <t>2021-10-05 14:35:30.564739</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607325</t>
+          <t>2021-10-05 14:35:30.564742</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607327</t>
+          <t>2021-10-05 14:35:30.564744</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607330</t>
+          <t>2021-10-05 14:35:30.564747</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607334</t>
+          <t>2021-10-05 14:35:30.564751</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607337</t>
+          <t>2021-10-05 14:35:30.564754</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607339</t>
+          <t>2021-10-05 14:35:30.564756</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607342</t>
+          <t>2021-10-05 14:35:30.564759</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607344</t>
+          <t>2021-10-05 14:35:30.564761</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607347</t>
+          <t>2021-10-05 14:35:30.564764</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607350</t>
+          <t>2021-10-05 14:35:30.564766</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607352</t>
+          <t>2021-10-05 14:35:30.564769</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607355</t>
+          <t>2021-10-05 14:35:30.564771</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607357</t>
+          <t>2021-10-05 14:35:30.564774</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607360</t>
+          <t>2021-10-05 14:35:30.564776</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607362</t>
+          <t>2021-10-05 14:35:30.564779</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607365</t>
+          <t>2021-10-05 14:35:30.564781</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607367</t>
+          <t>2021-10-05 14:35:30.564783</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607370</t>
+          <t>2021-10-05 14:35:30.564786</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607373</t>
+          <t>2021-10-05 14:35:30.564788</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607375</t>
+          <t>2021-10-05 14:35:30.564791</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607378</t>
+          <t>2021-10-05 14:35:30.564793</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607380</t>
+          <t>2021-10-05 14:35:30.564796</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607383</t>
+          <t>2021-10-05 14:35:30.564798</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607385</t>
+          <t>2021-10-05 14:35:30.564801</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607388</t>
+          <t>2021-10-05 14:35:30.564803</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607391</t>
+          <t>2021-10-05 14:35:30.564806</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607393</t>
+          <t>2021-10-05 14:35:30.564808</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607396</t>
+          <t>2021-10-05 14:35:30.564811</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607399</t>
+          <t>2021-10-05 14:35:30.564813</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607401</t>
+          <t>2021-10-05 14:35:30.564816</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607404</t>
+          <t>2021-10-05 14:35:30.564818</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607406</t>
+          <t>2021-10-05 14:35:30.564821</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607409</t>
+          <t>2021-10-05 14:35:30.564823</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607412</t>
+          <t>2021-10-05 14:35:30.564826</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607414</t>
+          <t>2021-10-05 14:35:30.564828</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607417</t>
+          <t>2021-10-05 14:35:30.564831</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607420</t>
+          <t>2021-10-05 14:35:30.564833</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607422</t>
+          <t>2021-10-05 14:35:30.564836</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607425</t>
+          <t>2021-10-05 14:35:30.564838</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607428</t>
+          <t>2021-10-05 14:35:30.564841</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607430</t>
+          <t>2021-10-05 14:35:30.564844</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607433</t>
+          <t>2021-10-05 14:35:30.564846</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607436</t>
+          <t>2021-10-05 14:35:30.564849</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607438</t>
+          <t>2021-10-05 14:35:30.564851</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607441</t>
+          <t>2021-10-05 14:35:30.564854</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607443</t>
+          <t>2021-10-05 14:35:30.564856</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607446</t>
+          <t>2021-10-05 14:35:30.564859</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607449</t>
+          <t>2021-10-05 14:35:30.564862</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607451</t>
+          <t>2021-10-05 14:35:30.564864</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607454</t>
+          <t>2021-10-05 14:35:30.564867</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,91 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:30.607457</t>
+          <t>2021-10-05 14:35:30.564869</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Regression</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>206</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.379</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T04:28:36.769434Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:35:30.560650</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/206/?format=json</t>
         </is>
       </c>
     </row>
